--- a/dup/dup_SMP.xlsx
+++ b/dup/dup_SMP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -503,25 +498,24 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.9</v>
+        <v>-8.14883</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.14883</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.68015</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Tepus/@-8.0594069,110.416109,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb858fb44247f:0xb90d0b1daa893e09!8m2!3d-8.14883!4d110.68015!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm6bnd2p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Muhammadiyah+2+Tepus/@-8.0594069,110.416109,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb858fb44247f:0xb90d0b1daa893e09!8m2!3d-8.14883!4d110.68015!15sCg9TTVAgR3VudW5na2lkdWySAQ1taWRkbGVfc2Nob29s4AEA!16s%2Fg%2F1hm6bnd2p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -540,25 +534,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.9</v>
+        <v>-7.963989</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.963989</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.588874</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTsN+4+Gunungkidul/@-8.0594069,110.416109,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb3393ecd533b:0x76aef87c38a7e649!8m2!3d-7.9639889!4d110.5888741!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEQcmVsaWdpb3VzX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTU1UZzNOMHhuRUFF4AEA-gEECCAQHQ!16s%2Fg%2F1hm379_34?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTsN+4+Gunungkidul/@-8.0594069,110.416109,11z/data=!4m10!1m2!2m1!1sSMP+Gunungkidul!3m6!1s0x2e7bb3393ecd533b:0x76aef87c38a7e649!8m2!3d-7.9639889!4d110.5888741!15sCg9TTVAgR3VudW5na2lkdWxaESIPc21wIGd1bnVuZ2tpZHVskgEQcmVsaWdpb3VzX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTU1UZzNOMHhuRUFF4AEA-gEECCAQHQ!16s%2Fg%2F1hm379_34?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -585,25 +578,24 @@
           <t>(0274) 374088</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.6</v>
+        <v>-7.801904</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.801904</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.367808</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+2+Yogyakarta/@-7.8019042,110.3497834,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5785ea52aa5f:0xee00e209f4625d1f!8m2!3d-7.8019042!4d110.3678078!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1z0spcfxy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+2+Yogyakarta/@-7.8019042,110.3497834,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5785ea52aa5f:0xee00e209f4625d1f!8m2!3d-7.8019042!4d110.3678078!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1z0spcfxy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -630,25 +622,24 @@
           <t>(0274) 372666</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>-7.824596</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.824596</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.3758</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+10+Yogyakarta/@-7.824596,110.3577756,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57a7b5d6f035:0x7682bddc7710ed59!8m2!3d-7.824596!4d110.3758!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11rr_gct3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+10+Yogyakarta/@-7.824596,110.3577756,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57a7b5d6f035:0x7682bddc7710ed59!8m2!3d-7.824596!4d110.3758!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11rr_gct3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -675,25 +666,24 @@
           <t>(0274) 519479</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.6</v>
+        <v>-7.79366</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.79366</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.383276</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Piri+1/@-7.7936596,110.3652517,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59d5ba3c0a09:0xabf1e87f27e450c7!8m2!3d-7.7936596!4d110.3832761!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf3xzztc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Piri+1/@-7.7936596,110.3652517,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59d5ba3c0a09:0xabf1e87f27e450c7!8m2!3d-7.7936596!4d110.3832761!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hf3xzztc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -720,25 +710,24 @@
           <t>(0274) 585446</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.7</v>
+        <v>-7.798327</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.798327</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.3901</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Muhammadiyah+8+Yogyakarta(%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%A9%EA%A7%80%EA%A6%A5%EA%A7%80%EA%A6%A9%EA%A6%B8%EA%A6%B2%EA%A6%A9%EA%A7%80%EA%A6%A9%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%83%EA%A6%A3%EA%A6%BC%EA%A6%AD%EA%A6%A5%EA%A6%A4%EA%A7%80%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE/@-7.7936596,110.3652517,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a577cce604761:0x288987551668dbe5!8m2!3d-7.7983268!4d110.3900999!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F11g_8bsxf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -761,25 +750,24 @@
           <t>0858-7895-8029</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>-7.786147</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.786147</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.36977</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+IT+Masjid+Syuhada+Yogyakarta/@-7.7861472,110.3517454,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582e2d64dfef:0xad8190049c019b5!8m2!3d-7.7861472!4d110.3697698!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm4fgpld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+IT+Masjid+Syuhada+Yogyakarta/@-7.7861472,110.3517454,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a582e2d64dfef:0xad8190049c019b5!8m2!3d-7.7861472!4d110.3697698!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm4fgpld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -802,25 +790,24 @@
           <t>(0274) 385975</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>-7.802407</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.802407</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.364757</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SD+Pangudi+Luhur+I+%EA%A6%8C%EA%A6%B1%EA%A7%80%EA%A7%88%EA%A6%A3%EA%A6%BA%EA%A7%88%EA%A6%A5%EA%A6%94%EA%A6%B8%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%B8%EA%A6%B2%EA%A6%B8%EA%A6%82%EA%A7%87%EA%A7%91%EA%A7%87/@-7.8024068,110.3467324,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a578f5fb2edb1:0xb4127fd67e8bd4d0!8m2!3d-7.8024068!4d110.3647568!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2EyVlFaVmRCRUFF4AEA-gEFCOABEC4!16s%2Fg%2F1hc7_0kgk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SD+Pangudi+Luhur+I+%EA%A6%8C%EA%A6%B1%EA%A7%80%EA%A7%88%EA%A6%A3%EA%A6%BA%EA%A7%88%EA%A6%A5%EA%A6%94%EA%A6%B8%EA%A6%A2%EA%A6%B6%EA%A6%AD%EA%A6%B8%EA%A6%B2%EA%A6%B8%EA%A6%82%EA%A7%87%EA%A7%91%EA%A7%87/@-7.8024068,110.3467324,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a578f5fb2edb1:0xb4127fd67e8bd4d0!8m2!3d-7.8024068!4d110.3647568!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2EyVlFaVmRCRUFF4AEA-gEFCOABEC4!16s%2Fg%2F1hc7_0kgk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -843,25 +830,24 @@
           <t>(0274) 518446</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F10" t="n">
-        <v>3.9</v>
+        <v>-7.781595</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.781595</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.366021</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Bhinneka+Tunggal+Ika/@-7.781595,110.3479966,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a583a72440955:0x8a7b4189289b312a!8m2!3d-7.781595!4d110.366021!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXROelJETVcxQlJSQULgAQD6AQQIABAt!16s%2Fg%2F11b6cgddbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Bhinneka+Tunggal+Ika/@-7.781595,110.3479966,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a583a72440955:0x8a7b4189289b312a!8m2!3d-7.781595!4d110.366021!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXROelJETVcxQlJSQULgAQD6AQQIABAt!16s%2Fg%2F11b6cgddbw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -884,25 +870,24 @@
           <t>(0274) 518446</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F11" t="n">
-        <v>3.9</v>
+        <v>-7.810798</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.810798</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.355701</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+6+Yogyakarta/@-7.8107978,110.3376764,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57933eff4bed:0xa7592d7830245160!8m2!3d-7.8107978!4d110.3557008!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQtoaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2VYUkRNRTFCRUFF4AEA-gEECAAQOg!16s%2Fg%2F11btmrdjmt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+6+Yogyakarta/@-7.8107978,110.3376764,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57933eff4bed:0xa7592d7830245160!8m2!3d-7.8107978!4d110.3557008!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQtoaWdoX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2VYUkRNRTFCRUFF4AEA-gEECAAQOg!16s%2Fg%2F11btmrdjmt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -929,25 +914,24 @@
           <t>(0274) 370310</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.9</v>
+        <v>-7.802219</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.802219</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.366639</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Pangudi+Luhur+St.+Yusup+Yogyakarta/@-7.802219,110.3486146,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57880dd11379:0x3e3ea1f1734aa6b3!8m2!3d-7.802219!4d110.366639!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXRhV05UY1ZKQkVBReABAPoBBAgAEEU!16s%2Fg%2F121g71h4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Pangudi+Luhur+St.+Yusup+Yogyakarta/@-7.802219,110.3486146,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57880dd11379:0x3e3ea1f1734aa6b3!8m2!3d-7.802219!4d110.366639!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXRhV05UY1ZKQkVBReABAPoBBAgAEEU!16s%2Fg%2F121g71h4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -974,25 +958,24 @@
           <t>(0274) 387878</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>-7.801935</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.801935</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.36861</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A9%EA%A6%82%EA%A6%B1%EA%A6%B8%EA%A6%A3%EA%A6%B6%EA%A6%AB%EA%A6%B6%EA%A6%A4%EA%A6%B6%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0+SD+Marsudirini+Yogyakarta/@-7.801935,110.3505856,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5785c697965d:0xaa802b2d2dd712c8!8m2!3d-7.801935!4d110.36861!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONmNWOHRXVVJuRUFF4AEA-gEECAAQSQ!16s%2Fg%2F11r8flp9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%B1%EA%A7%80%EA%A6%9D%EA%A7%80%EA%A6%A9%EA%A6%82%EA%A6%B1%EA%A6%B8%EA%A6%A3%EA%A6%B6%EA%A6%AB%EA%A6%B6%EA%A6%A4%EA%A6%B6%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0+SD+Marsudirini+Yogyakarta/@-7.801935,110.3505856,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5785c697965d:0xaa802b2d2dd712c8!8m2!3d-7.801935!4d110.36861!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARFlbGVtZW50YXJ5X3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VONmNWOHRXVVJuRUFF4AEA-gEECAAQSQ!16s%2Fg%2F11r8flp9n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1019,25 +1002,24 @@
           <t>(0274) 387878</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>-7.820431</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.820431</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.35993</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+4+Yogyakarta/@-7.820431,110.3419056,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57be92544de3:0x2ca7740aad52a399!8m2!3d-7.820431!4d110.35993!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObExYVjJNSFpuUlJBQuABAPoBBAgAEDs!16s%2Fg%2F11bbx0k31q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+4+Yogyakarta/@-7.820431,110.3419056,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a57be92544de3:0x2ca7740aad52a399!8m2!3d-7.820431!4d110.35993!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARp2b2NhdGlvbmFsX3RyYWluaW5nX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VObExYVjJNSFpuUlJBQuABAPoBBAgAEDs!16s%2Fg%2F11bbx0k31q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1064,25 +1046,24 @@
           <t>0821-8008-7076</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.8</v>
+        <v>-7.793904</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.793904</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.382486</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+PIRI+1+Yogyakarta/@-7.793904,110.3644616,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59df912ba049:0xbdae2c4947f02d2!8m2!3d-7.793904!4d110.382486!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXljR1ZVYVVoUkVBReABAPoBBAgAECY!16s%2Fg%2F11szsv46l5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+PIRI+1+Yogyakarta/@-7.793904,110.3644616,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a59df912ba049:0xbdae2c4947f02d2!8m2!3d-7.793904!4d110.382486!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSARJzZW5pb3JfaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUXljR1ZVYVVoUkVBReABAPoBBAgAECY!16s%2Fg%2F11szsv46l5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1101,25 +1082,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.9</v>
+        <v>-7.799492</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.799492</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.387198</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KAMPUS+1+SDIT+LUQMAN+AL+HAKIM+2+YOGYAKARTA/@-7.7994916,110.3691731,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5754b17f5367:0x89c741e8ac416e9c!8m2!3d-7.7994916!4d110.3871975!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRkV0ZoTFdkUlJSQULgAQD6AQQIABA1!16s%2Fg%2F11f6nns_h2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KAMPUS+1+SDIT+LUQMAN+AL+HAKIM+2+YOGYAKARTA/@-7.7994916,110.3691731,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5754b17f5367:0x89c741e8ac416e9c!8m2!3d-7.7994916!4d110.3871975!15sChNTTVAgS290YSBZb2d5YWthcnRhWhUiE3NtcCBrb3RhIHlvZ3lha2FydGGSAQZzY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRkV0ZoTFdkUlJSQULgAQD6AQQIABA1!16s%2Fg%2F11f6nns_h2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1138,25 +1118,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.1</v>
+        <v>-7.793401</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.793401</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.36164</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Madrasah+Tsanawiyah+Muhammadiyah+Gedongtengen+Yogyakarta/@-7.7934014,110.3436159,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5826d97b9641:0xe39254e13ce0e4af!8m2!3d-7.7934014!4d110.3616403!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm2b0h3g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Madrasah+Tsanawiyah+Muhammadiyah+Gedongtengen+Yogyakarta/@-7.7934014,110.3436159,15z/data=!4m10!1m2!2m1!1sSMP+Kota+Yogyakarta!3m6!1s0x2e7a5826d97b9641:0xe39254e13ce0e4af!8m2!3d-7.7934014!4d110.3616403!15sChNTTVAgS290YSBZb2d5YWthcnRhkgENbWlkZGxlX3NjaG9vbOABAA!16s%2Fg%2F1hm2b0h3g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1183,25 +1162,24 @@
           <t>(0274) 773517</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>2.9</v>
+      </c>
       <c r="F18" t="n">
-        <v>2.9</v>
+        <v>-7.85732</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.85732</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.155146</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Kanisius+Wates/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb24d9645797:0x768d49847af06b85!8m2!3d-7.8573196!4d110.155146!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTE1UazNWa3RSRUFF4AEA-gEECAAQEg!16s%2Fg%2F1hm1ynztr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1224,25 +1202,24 @@
           <t>(0274) 773517</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>2.9</v>
+      </c>
       <c r="F19" t="n">
-        <v>2.9</v>
+        <v>-7.858061</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.858061</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.156107</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMP+Negeri+1+Wates+Unit+2/@-7.660234,109.8692395,11z/data=!4m10!1m2!2m1!1sSMP+Kulon+Progo!3m6!1s0x2e7afb3b332417f1:0x643d0dbd8af95936!8m2!3d-7.8580614!4d110.156107!15sCg9TTVAgS3Vsb24gUHJvZ29aESIPc21wIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMmMwcExaM0JCUlJBQuABAPoBBAgVEBQ!16s%2Fg%2F11b69fbc44?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
